--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B4CD3C-9D69-4655-A47B-E8E3EBA4B39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26425CE1-C237-442E-8FC6-3D7520CDF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>TUBCON</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>DIAS</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>01 ENTREGA / OUTRA INFORMAR</t>
+  </si>
+  <si>
+    <t>PREVISTO PARA 25/02</t>
+  </si>
+  <si>
+    <t>PREVISTO PARA 31/03</t>
+  </si>
+  <si>
+    <t>02 BOMBAS APÓS DESARENADOR</t>
+  </si>
+  <si>
+    <t>ERIKA VERIFICANDO</t>
+  </si>
+  <si>
+    <t>PAULO RETORNAR</t>
   </si>
 </sst>
 </file>
@@ -501,10 +522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0856933-14FE-439E-924A-9E5A9EE0F62C}">
-  <dimension ref="A1:G20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,9 +540,10 @@
     <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -526,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -534,10 +559,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -559,8 +584,11 @@
       <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -583,8 +611,11 @@
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -607,8 +638,11 @@
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -631,8 +665,11 @@
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -655,8 +692,11 @@
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -679,8 +719,9 @@
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -703,8 +744,9 @@
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -727,8 +769,11 @@
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -751,8 +796,11 @@
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -775,8 +823,9 @@
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -799,8 +848,11 @@
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -823,8 +875,9 @@
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -847,8 +900,11 @@
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -862,7 +918,7 @@
         <v>45629</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -871,11 +927,14 @@
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
         <v>45701</v>
@@ -883,6 +942,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26425CE1-C237-442E-8FC6-3D7520CDF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CA43D1-BAA4-48CE-8EDF-BC875350FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>TUBCON</t>
   </si>
@@ -39,9 +39,6 @@
     <t>45 DIAS CORRIDOS</t>
   </si>
   <si>
-    <t>90 DOAS CORRIDOS</t>
-  </si>
-  <si>
     <t>90 DIAS CORRIDOS</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>AGUARDANDO ENTREGA</t>
   </si>
   <si>
-    <t xml:space="preserve">ENTREGUE  </t>
-  </si>
-  <si>
     <t>ENTREGA PARCIAl (103.343,80)</t>
   </si>
   <si>
@@ -132,7 +126,22 @@
     <t>ERIKA VERIFICANDO</t>
   </si>
   <si>
-    <t>PAULO RETORNAR</t>
+    <t>TOTAL DOS LOTES: 576.397,95</t>
+  </si>
+  <si>
+    <t>NF EMITIDA 315.325,89</t>
+  </si>
+  <si>
+    <t>PREVISTO PARA 17/02</t>
+  </si>
+  <si>
+    <t>RESTANTE ATÉ 28/02</t>
+  </si>
+  <si>
+    <t>PREVISTO RESTANTE 17/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTREGA TOTAL EM 23/12/2024  </t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,18 +554,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,28 +573,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,10 +618,10 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,14 +638,14 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>34</v>
@@ -656,17 +665,17 @@
         <v>45629</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,17 +692,17 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -710,14 +719,14 @@
         <v>45629</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -735,14 +744,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -760,17 +769,17 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>435000</v>
@@ -787,17 +796,17 @@
         <v>45629</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>17000</v>
@@ -814,14 +823,14 @@
         <v>45629</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -830,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
         <v>37500</v>
@@ -839,17 +848,17 @@
         <v>45629</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
         <v>80000</v>
@@ -866,14 +875,14 @@
         <v>45629</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -882,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
         <v>125899.96</v>
@@ -891,17 +900,17 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5">
         <v>750000</v>
@@ -918,17 +927,17 @@
         <v>45629</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,7 +946,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45701</v>
+        <v>45702</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CA43D1-BAA4-48CE-8EDF-BC875350FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E20B8A-AFD3-4C2D-95B2-B399AE2C3094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>TUBCON</t>
   </si>
@@ -142,6 +143,42 @@
   </si>
   <si>
     <t xml:space="preserve">ENTREGA TOTAL EM 23/12/2024  </t>
+  </si>
+  <si>
+    <t>014/2024</t>
+  </si>
+  <si>
+    <t>LOTEAMENTOS CPA, MARIA AMELIA, ALTAMIRANDO II E ALFREDO III</t>
+  </si>
+  <si>
+    <t>CORR PLASTIK INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>CONSTRUFER MAQUINAS CONSTRUÇÕES FERRAMENTAS E EPI´S LTDA</t>
+  </si>
+  <si>
+    <t>TUBCON TUBOS E CONEXOES, DISTRIBUICAO E SERVICOS LTDA.</t>
+  </si>
+  <si>
+    <t>FACTUM EQUIPAMENTOS PARA SANEAMENTO EIRELI EPP</t>
+  </si>
+  <si>
+    <t>ENGESAN SANEAMENTO LTDA</t>
+  </si>
+  <si>
+    <t>FERNANDES MANÁ MATERIAIS E EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>SCL DISTRIBUIDORA LTDA – ME</t>
+  </si>
+  <si>
+    <t>ENGESAN SANEAMENTO LTDA.</t>
+  </si>
+  <si>
+    <t>HIDROTEL COMÉRCIO E SERVIÇOS LTDA</t>
+  </si>
+  <si>
+    <t>NELIA MARIA CYRINO LEAL INDUSTRIA DE MATERIAIS FUNDIDOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -198,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,4 +993,291 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8">
+        <v>482999.14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8">
+        <v>599767.04000000004</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8">
+        <v>23089.99</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8">
+        <v>31899.91</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8">
+        <v>30400</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8">
+        <v>9349</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8">
+        <v>224271.84</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8">
+        <v>63488.22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8">
+        <v>22894.959999999999</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5671.32</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42999.93</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1529999.27</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8">
+        <v>102499.92</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E20B8A-AFD3-4C2D-95B2-B399AE2C3094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4001EA7-D96F-42B4-93CF-61EAF3C9FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>TUBCON</t>
   </si>
@@ -179,13 +180,67 @@
   </si>
   <si>
     <t>NELIA MARIA CYRINO LEAL INDUSTRIA DE MATERIAIS FUNDIDOS LTDA</t>
+  </si>
+  <si>
+    <t>TUBO PVC PBA RIGIDO JEI DN 50 DE 60MM, CLASSE...</t>
+  </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>TUBO PVC PBA RIGIDO JEI DN 75 MM, CLASSE 12,...</t>
+  </si>
+  <si>
+    <t>TUBO PVC PBA RIGIDO JEI DN 100 MM, CLASSE 12...</t>
+  </si>
+  <si>
+    <t>TUBO PVC RIGIDO DEFOFO PB JE COM PONTA E BOLS...</t>
+  </si>
+  <si>
+    <t>BARRA</t>
+  </si>
+  <si>
+    <t>TUBO COLETOR DE ESGOTO PVC, OCRE, JEI, DN 100...</t>
+  </si>
+  <si>
+    <t>TUBO COLETOR DE ESGOTO PVC, OCRE, JEI, DN 150...</t>
+  </si>
+  <si>
+    <t>TUBO COLETOR DE ESGOTO PVC, OCRE, JEI, DN 200...</t>
+  </si>
+  <si>
+    <t>lote 01</t>
+  </si>
+  <si>
+    <t>lote 2</t>
+  </si>
+  <si>
+    <t>lote 12</t>
+  </si>
+  <si>
+    <t>PEDIDO : 91.021,08</t>
+  </si>
+  <si>
+    <t>PEDIDO : 160.475,53</t>
+  </si>
+  <si>
+    <t>PEDIDO : 510.963,86</t>
+  </si>
+  <si>
+    <t>PEDIDO : 16.494,24</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL: 14/02/2025</t>
+  </si>
+  <si>
+    <t>ENTREGA FINAL 06/02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +248,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -254,9 +328,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +1090,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,14 +1157,18 @@
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>482999.14</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1083,14 +1177,18 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>599767.04000000004</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1099,7 +1197,7 @@
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>23089.99</v>
       </c>
       <c r="D7" s="6"/>
@@ -1115,7 +1213,7 @@
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>31899.91</v>
       </c>
       <c r="D8" s="6"/>
@@ -1131,7 +1229,7 @@
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>30400</v>
       </c>
       <c r="D9" s="6"/>
@@ -1147,7 +1245,7 @@
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>9349</v>
       </c>
       <c r="D10" s="6"/>
@@ -1163,7 +1261,7 @@
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>224271.84</v>
       </c>
       <c r="D11" s="6"/>
@@ -1179,7 +1277,7 @@
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>63488.22</v>
       </c>
       <c r="D12" s="6"/>
@@ -1195,7 +1293,7 @@
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>22894.959999999999</v>
       </c>
       <c r="D13" s="6"/>
@@ -1211,7 +1309,7 @@
       <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>5671.32</v>
       </c>
       <c r="D14" s="6"/>
@@ -1227,7 +1325,7 @@
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>42999.93</v>
       </c>
       <c r="D15" s="6"/>
@@ -1243,14 +1341,18 @@
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>1529999.27</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1259,14 +1361,18 @@
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>102499.92</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1280,4 +1386,277 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00306ED-5B5C-403C-B19A-2BE5C85C28CD}">
+  <dimension ref="A4:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>13008</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1166</v>
+      </c>
+      <c r="F4" s="8">
+        <v>57.6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>67161.600000000006</v>
+      </c>
+      <c r="H4" s="10">
+        <v>67161.600000000006</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="14">
+        <f>H4+H5+H6</f>
+        <v>91021.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>13009</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="11">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11">
+        <v>118.86</v>
+      </c>
+      <c r="G5" s="13">
+        <v>10459.68</v>
+      </c>
+      <c r="H5" s="13">
+        <v>10459.68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="14">
+        <f>H7+H8+H9</f>
+        <v>160475.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>13010</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8">
+        <v>69</v>
+      </c>
+      <c r="F6" s="8">
+        <v>194.2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>13399.8</v>
+      </c>
+      <c r="H6" s="10">
+        <v>13399.8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="14">
+        <f>H10+H11+H12</f>
+        <v>510963.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>13011</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11">
+        <v>400</v>
+      </c>
+      <c r="G7" s="13">
+        <v>13600</v>
+      </c>
+      <c r="H7" s="13">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>13012</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="8">
+        <v>65</v>
+      </c>
+      <c r="F8" s="8">
+        <v>673.41</v>
+      </c>
+      <c r="G8" s="10">
+        <v>43771.65</v>
+      </c>
+      <c r="H8" s="10">
+        <v>43771.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>13013</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11">
+        <v>66</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1562.18</v>
+      </c>
+      <c r="G9" s="13">
+        <v>103103.88</v>
+      </c>
+      <c r="H9" s="13">
+        <v>103103.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>13071</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F10" s="8">
+        <v>106.41</v>
+      </c>
+      <c r="G10" s="10">
+        <v>307312.08</v>
+      </c>
+      <c r="H10" s="10">
+        <v>307312.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12">
+        <v>13072</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11">
+        <v>608</v>
+      </c>
+      <c r="F11" s="11">
+        <v>221.41</v>
+      </c>
+      <c r="G11" s="13">
+        <v>134617.28</v>
+      </c>
+      <c r="H11" s="13">
+        <v>134617.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>13073</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8">
+        <v>207</v>
+      </c>
+      <c r="F12" s="8">
+        <v>333.5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>69034.5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>69034.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4001EA7-D96F-42B4-93CF-61EAF3C9FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E4043-BF4C-41A5-A728-CC744C447E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>TUBCON</t>
   </si>
@@ -218,22 +218,25 @@
     <t>lote 12</t>
   </si>
   <si>
-    <t>PEDIDO : 91.021,08</t>
-  </si>
-  <si>
-    <t>PEDIDO : 160.475,53</t>
-  </si>
-  <si>
-    <t>PEDIDO : 510.963,86</t>
-  </si>
-  <si>
-    <t>PEDIDO : 16.494,24</t>
-  </si>
-  <si>
     <t>ENTREGA TOTAL: 14/02/2025</t>
   </si>
   <si>
     <t>ENTREGA FINAL 06/02</t>
+  </si>
+  <si>
+    <t>DATA NAD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR NAD 1 </t>
+  </si>
+  <si>
+    <t>DATA NAD 2</t>
+  </si>
+  <si>
+    <t>VALOR NAD 2</t>
+  </si>
+  <si>
+    <t>SITUACAO</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -347,6 +350,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +671,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +752,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
@@ -775,7 +779,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>34</v>
@@ -802,7 +806,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>35</v>
@@ -829,7 +833,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>36</v>
@@ -856,7 +860,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -881,7 +885,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -906,7 +910,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>37</v>
@@ -933,7 +937,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>30</v>
@@ -960,7 +964,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -985,7 +989,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>32</v>
@@ -1012,7 +1016,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1037,7 +1041,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>29</v>
@@ -1064,7 +1068,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>31</v>
@@ -1076,7 +1080,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1094,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,11 +1102,11 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,19 +1139,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,13 +1165,16 @@
         <v>482999.14</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="15">
+        <v>91021.08</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
+      <c r="H5" s="2">
+        <f>55772.9-H6</f>
+        <v>52972.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,13 +1188,15 @@
         <v>599767.04000000004</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15">
+        <v>160475.53</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>68</v>
+      <c r="H6" s="2">
+        <v>2800</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1204,7 +1213,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>6313.03</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1220,7 +1231,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>4585.16</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1236,7 +1249,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>7027</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1252,7 +1267,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>4389.8999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1268,7 +1285,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>111871.76</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1300,7 +1319,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>10823.07</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1316,7 +1337,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>2828.98</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1332,7 +1355,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>9555.5400000000009</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1345,14 +1370,14 @@
         <v>1529999.27</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="15">
+        <v>510963.86</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1365,14 +1390,14 @@
         <v>102499.92</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="E17" s="15">
+        <v>16494.240000000002</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1380,7 +1405,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741E4043-BF4C-41A5-A728-CC744C447E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877DD40A-604E-47F2-9157-640EBA2F7490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>TUBCON</t>
   </si>
@@ -35,9 +35,6 @@
     <t>V E GOMES</t>
   </si>
   <si>
-    <t>ENTREGA PARCIAL (2.171,50)</t>
-  </si>
-  <si>
     <t>45 DIAS CORRIDOS</t>
   </si>
   <si>
@@ -128,18 +125,6 @@
     <t>ERIKA VERIFICANDO</t>
   </si>
   <si>
-    <t>TOTAL DOS LOTES: 576.397,95</t>
-  </si>
-  <si>
-    <t>NF EMITIDA 315.325,89</t>
-  </si>
-  <si>
-    <t>PREVISTO PARA 17/02</t>
-  </si>
-  <si>
-    <t>RESTANTE ATÉ 28/02</t>
-  </si>
-  <si>
     <t>PREVISTO RESTANTE 17/02</t>
   </si>
   <si>
@@ -237,6 +222,21 @@
   </si>
   <si>
     <t>SITUACAO</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL (JUNCAO) 17/02</t>
+  </si>
+  <si>
+    <t>RESTANTE (59.598,26) ATÉ 28/02</t>
+  </si>
+  <si>
+    <t>ATÉ 28/02</t>
+  </si>
+  <si>
+    <t>ENTREGA PARCIAL (77.301,69) 17/02</t>
+  </si>
+  <si>
+    <t>ENTREGA PARCIAL (140.196,70) 17/02</t>
   </si>
 </sst>
 </file>
@@ -668,10 +668,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,26 +680,27 @@
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,28 +708,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,17 +746,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,18 +773,16 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>76</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -799,17 +798,17 @@
         <v>45629</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,18 +825,16 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>76</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -853,14 +850,14 @@
         <v>45629</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -878,14 +875,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -903,17 +900,17 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>435000</v>
@@ -930,17 +927,17 @@
         <v>45629</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>17000</v>
@@ -957,14 +954,14 @@
         <v>45629</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -973,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>37500</v>
@@ -982,17 +979,17 @@
         <v>45629</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5">
         <v>80000</v>
@@ -1009,14 +1006,14 @@
         <v>45629</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1025,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>125899.96</v>
@@ -1034,17 +1031,17 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5">
         <v>750000</v>
@@ -1061,17 +1058,17 @@
         <v>45629</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,8 +1077,11 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
-      </c>
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1093,7 +1093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1111,18 +1111,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,28 +1130,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <v>482999.14</v>
@@ -1169,7 +1169,7 @@
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
         <v>599767.04000000004</v>
@@ -1192,7 +1192,7 @@
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <v>23089.99</v>
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <v>31899.91</v>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5">
         <v>30400</v>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>9349</v>
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5">
         <v>224271.84</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5">
         <v>63488.22</v>
@@ -1310,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <v>22894.959999999999</v>
@@ -1328,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
         <v>5671.32</v>
@@ -1346,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5">
         <v>42999.93</v>
@@ -1364,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>1529999.27</v>
@@ -1374,7 +1374,7 @@
         <v>510963.86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>102499.92</v>
@@ -1394,7 +1394,7 @@
         <v>16494.240000000002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1405,7 +1405,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1434,10 @@
         <v>13008</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>1166</v>
@@ -1452,7 +1452,7 @@
         <v>67161.600000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L4" s="14">
         <f>H4+H5+H6</f>
@@ -1467,10 +1467,10 @@
         <v>13009</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="11">
         <v>88</v>
@@ -1485,7 +1485,7 @@
         <v>10459.68</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L5" s="14">
         <f>H7+H8+H9</f>
@@ -1500,10 +1500,10 @@
         <v>13010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8">
         <v>69</v>
@@ -1518,7 +1518,7 @@
         <v>13399.8</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L6" s="14">
         <f>H10+H11+H12</f>
@@ -1533,10 +1533,10 @@
         <v>13011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11">
         <v>34</v>
@@ -1559,10 +1559,10 @@
         <v>13012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8">
         <v>65</v>
@@ -1585,10 +1585,10 @@
         <v>13013</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="11">
         <v>66</v>
@@ -1611,10 +1611,10 @@
         <v>13071</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8">
         <v>2888</v>
@@ -1637,10 +1637,10 @@
         <v>13072</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E11" s="11">
         <v>608</v>
@@ -1663,10 +1663,10 @@
         <v>13073</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8">
         <v>207</v>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877DD40A-604E-47F2-9157-640EBA2F7490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B64499-C63E-4077-AAAC-0103E2C484AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>TUBCON</t>
   </si>
@@ -92,9 +92,6 @@
     <t>AGUARDANDO ENTREGA</t>
   </si>
   <si>
-    <t>ENTREGA PARCIAl (103.343,80)</t>
-  </si>
-  <si>
     <t>ENTREGA TOTAL EM 06/02/2025</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>ERIKA VERIFICANDO</t>
   </si>
   <si>
-    <t>PREVISTO RESTANTE 17/02</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTREGA TOTAL EM 23/12/2024  </t>
   </si>
   <si>
@@ -237,6 +231,9 @@
   </si>
   <si>
     <t>ENTREGA PARCIAL (140.196,70) 17/02</t>
+  </si>
+  <si>
+    <t>ENTREGA PARCIAl (276.201,10)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +668,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -746,17 +743,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,14 +770,14 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -805,10 +802,10 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,14 +822,14 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -850,14 +847,14 @@
         <v>45629</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -875,14 +872,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -900,18 +897,16 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>77</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -934,10 +929,10 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,14 +949,14 @@
         <v>45629</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -986,10 +981,10 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,14 +1001,14 @@
         <v>45629</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1038,10 +1033,10 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1058,17 +1053,17 @@
         <v>45629</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,7 +1072,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,19 +1134,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5">
         <v>482999.14</v>
@@ -1169,7 +1164,7 @@
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2">
@@ -1182,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>599767.04000000004</v>
@@ -1192,7 +1187,7 @@
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
@@ -1204,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>23089.99</v>
@@ -1222,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>31899.91</v>
@@ -1240,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>30400</v>
@@ -1258,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <v>9349</v>
@@ -1276,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5">
         <v>224271.84</v>
@@ -1294,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5">
         <v>63488.22</v>
@@ -1310,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>22894.959999999999</v>
@@ -1328,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5">
         <v>5671.32</v>
@@ -1346,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <v>42999.93</v>
@@ -1364,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5">
         <v>1529999.27</v>
@@ -1374,7 +1369,7 @@
         <v>510963.86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1384,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>102499.92</v>
@@ -1394,7 +1389,7 @@
         <v>16494.240000000002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1405,7 +1400,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1429,10 @@
         <v>13008</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>1166</v>
@@ -1452,7 +1447,7 @@
         <v>67161.600000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L4" s="14">
         <f>H4+H5+H6</f>
@@ -1467,10 +1462,10 @@
         <v>13009</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="11">
         <v>88</v>
@@ -1485,7 +1480,7 @@
         <v>10459.68</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="14">
         <f>H7+H8+H9</f>
@@ -1500,10 +1495,10 @@
         <v>13010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8">
         <v>69</v>
@@ -1518,7 +1513,7 @@
         <v>13399.8</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L6" s="14">
         <f>H10+H11+H12</f>
@@ -1533,10 +1528,10 @@
         <v>13011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="11">
         <v>34</v>
@@ -1559,10 +1554,10 @@
         <v>13012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8">
         <v>65</v>
@@ -1585,10 +1580,10 @@
         <v>13013</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11">
         <v>66</v>
@@ -1611,10 +1606,10 @@
         <v>13071</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8">
         <v>2888</v>
@@ -1637,10 +1632,10 @@
         <v>13072</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="11">
         <v>608</v>
@@ -1663,10 +1658,10 @@
         <v>13073</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8">
         <v>207</v>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B64499-C63E-4077-AAAC-0103E2C484AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BDE444-3D27-4BBD-B43B-D0C08D98ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="5535" yWindow="5535" windowWidth="21600" windowHeight="9105" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>64</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>65</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -956,7 +956,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>30</v>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>29</v>
@@ -1072,7 +1072,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BDE444-3D27-4BBD-B43B-D0C08D98ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BD57E-5DE5-44DF-821A-A4625E16D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="5535" windowWidth="21600" windowHeight="9105" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>TUBCON</t>
   </si>
@@ -234,6 +235,21 @@
   </si>
   <si>
     <t>ENTREGA PARCIAl (276.201,10)</t>
+  </si>
+  <si>
+    <t>012/2024</t>
+  </si>
+  <si>
+    <t>AMPLIAÇÃO DO SISTEMA DE ABASTECIMETNO DE ÁGUA NA ESTAÇÃO DE TRATAMENTO DE ÁGUA (ETA)</t>
+  </si>
+  <si>
+    <t>PETROFISA DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>SAINT GOBAIN CANALIZAÇÃO LTDA</t>
+  </si>
+  <si>
+    <t>CANCELADO NO PREGAO</t>
   </si>
 </sst>
 </file>
@@ -1088,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,6 +1425,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B335B5-ECC4-43A8-9A72-A05642EC4320}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5">
+        <v>300200</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5">
+        <v>384001.68</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5">
+        <v>935000</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00306ED-5B5C-403C-B19A-2BE5C85C28CD}">
   <dimension ref="A4:L12"/>
   <sheetViews>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BD57E-5DE5-44DF-821A-A4625E16D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697FA2F-AEF7-44C1-8033-5CA22FF09BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>TUBCON</t>
   </si>
@@ -249,7 +249,10 @@
     <t>SAINT GOBAIN CANALIZAÇÃO LTDA</t>
   </si>
   <si>
-    <t>CANCELADO NO PREGAO</t>
+    <t>CANCELADO NO PREGAO (LICITAR NOVAMENTE)</t>
+  </si>
+  <si>
+    <t>ENTREGA ATE 45 DIAS CORRIDOS</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -364,6 +367,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,8 +1117,8 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
@@ -1175,14 +1179,18 @@
       <c r="C5" s="5">
         <v>482999.14</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>45629</v>
+      </c>
       <c r="E5" s="15">
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="16">
+        <v>45709</v>
+      </c>
       <c r="H5" s="2">
         <f>55772.9-H6</f>
         <v>52972.9</v>
@@ -1198,14 +1206,18 @@
       <c r="C6" s="5">
         <v>599767.04000000004</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>45629</v>
+      </c>
       <c r="E6" s="15">
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="16">
+        <v>45709</v>
+      </c>
       <c r="H6" s="2">
         <v>2800</v>
       </c>
@@ -1223,7 +1235,9 @@
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="16">
+        <v>45709</v>
+      </c>
       <c r="H7" s="2">
         <v>6313.03</v>
       </c>
@@ -1241,7 +1255,9 @@
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="16">
+        <v>45709</v>
+      </c>
       <c r="H8" s="2">
         <v>4585.16</v>
       </c>
@@ -1259,7 +1275,9 @@
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="16">
+        <v>45709</v>
+      </c>
       <c r="H9" s="2">
         <v>7027</v>
       </c>
@@ -1277,7 +1295,9 @@
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="16">
+        <v>45709</v>
+      </c>
       <c r="H10" s="2">
         <v>4389.8999999999996</v>
       </c>
@@ -1295,7 +1315,9 @@
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="16">
+        <v>45709</v>
+      </c>
       <c r="H11" s="2">
         <v>111871.76</v>
       </c>
@@ -1313,8 +1335,12 @@
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="16">
+        <v>45709</v>
+      </c>
+      <c r="H12" s="2">
+        <v>31669.33</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1329,7 +1355,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="16">
+        <v>45709</v>
+      </c>
       <c r="H13" s="2">
         <v>10823.07</v>
       </c>
@@ -1347,7 +1375,9 @@
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="16">
+        <v>45709</v>
+      </c>
       <c r="H14" s="2">
         <v>2828.98</v>
       </c>
@@ -1365,7 +1395,9 @@
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="16">
+        <v>45709</v>
+      </c>
       <c r="H15" s="2">
         <v>9555.5400000000009</v>
       </c>
@@ -1380,7 +1412,9 @@
       <c r="C16" s="5">
         <v>1529999.27</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>45629</v>
+      </c>
       <c r="E16" s="15">
         <v>510963.86</v>
       </c>
@@ -1400,7 +1434,9 @@
       <c r="C17" s="5">
         <v>102499.92</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>45629</v>
+      </c>
       <c r="E17" s="15">
         <v>16494.240000000002</v>
       </c>
@@ -1418,6 +1454,9 @@
         <f ca="1">TODAY()</f>
         <v>45712</v>
       </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1429,7 +1468,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1478,7 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
@@ -1527,9 +1566,15 @@
       <c r="C7" s="5">
         <v>300200</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="6">
+        <v>45343</v>
+      </c>
+      <c r="E7" s="15">
+        <v>300200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -1543,9 +1588,15 @@
       <c r="C8" s="5">
         <v>384001.68</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="6">
+        <v>45343</v>
+      </c>
+      <c r="E8" s="15">
+        <v>384001.68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -1559,9 +1610,15 @@
       <c r="C9" s="5">
         <v>935000</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="6">
+        <v>45343</v>
+      </c>
+      <c r="E9" s="15">
+        <v>935000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697FA2F-AEF7-44C1-8033-5CA22FF09BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00490D5-9173-4629-88C1-6CC5AC511686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>TUBCON</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>02 BOMBAS APÓS DESARENADOR</t>
-  </si>
-  <si>
-    <t>ERIKA VERIFICANDO</t>
   </si>
   <si>
     <t xml:space="preserve">ENTREGA TOTAL EM 23/12/2024  </t>
@@ -687,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,17 +760,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,14 +787,14 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -822,10 +819,10 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,14 +839,14 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -874,7 +871,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -892,14 +889,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -917,14 +914,14 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -949,7 +946,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -976,7 +973,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1001,10 +998,10 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,7 +1025,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1053,7 +1050,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
@@ -1080,7 +1077,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>29</v>
@@ -1092,7 +1089,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45712</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,19 +1151,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1174,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5">
         <v>482999.14</v>
@@ -1186,7 +1183,7 @@
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="16">
         <v>45709</v>
@@ -1201,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5">
         <v>599767.04000000004</v>
@@ -1213,7 +1210,7 @@
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="16">
         <v>45709</v>
@@ -1227,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5">
         <v>23089.99</v>
@@ -1247,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <v>31899.91</v>
@@ -1267,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5">
         <v>30400</v>
@@ -1287,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5">
         <v>9349</v>
@@ -1307,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5">
         <v>224271.84</v>
@@ -1327,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <v>63488.22</v>
@@ -1347,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>22894.959999999999</v>
@@ -1367,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>5671.32</v>
@@ -1387,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>42999.93</v>
@@ -1407,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5">
         <v>1529999.27</v>
@@ -1419,7 +1416,7 @@
         <v>510963.86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1429,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5">
         <v>102499.92</v>
@@ -1441,7 +1438,7 @@
         <v>16494.240000000002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1452,7 +1449,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45712</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B335B5-ECC4-43A8-9A72-A05642EC4320}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1488,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,19 +1510,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1547,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1561,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1573,7 +1570,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1583,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1595,7 +1592,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1605,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1617,7 +1614,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1724,7 +1721,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45712</v>
+        <v>45715</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1750,10 @@
         <v>13008</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>1166</v>
@@ -1771,7 +1768,7 @@
         <v>67161.600000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="14">
         <f>H4+H5+H6</f>
@@ -1786,10 +1783,10 @@
         <v>13009</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11">
         <v>88</v>
@@ -1804,7 +1801,7 @@
         <v>10459.68</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="14">
         <f>H7+H8+H9</f>
@@ -1819,10 +1816,10 @@
         <v>13010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8">
         <v>69</v>
@@ -1837,7 +1834,7 @@
         <v>13399.8</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="14">
         <f>H10+H11+H12</f>
@@ -1852,10 +1849,10 @@
         <v>13011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11">
         <v>34</v>
@@ -1878,10 +1875,10 @@
         <v>13012</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="8">
         <v>65</v>
@@ -1904,10 +1901,10 @@
         <v>13013</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="11">
         <v>66</v>
@@ -1930,10 +1927,10 @@
         <v>13071</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8">
         <v>2888</v>
@@ -1956,10 +1953,10 @@
         <v>13072</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11">
         <v>608</v>
@@ -1982,10 +1979,10 @@
         <v>13073</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8">
         <v>207</v>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00490D5-9173-4629-88C1-6CC5AC511686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563C8D-34BB-4517-90BB-1AFCAD303DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>ENTREGA PARCIAL (140.196,70) 17/02</t>
   </si>
   <si>
-    <t>ENTREGA PARCIAl (276.201,10)</t>
-  </si>
-  <si>
     <t>012/2024</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>ENTREGA ATE 45 DIAS CORRIDOS</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL EM 06/03/2025</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>63</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>64</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -914,14 +914,14 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>29</v>
@@ -1089,7 +1089,13 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45715</v>
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="14">
+        <f>C11-276201.1</f>
+        <v>8697.9000000000233</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,7 +1455,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45715</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1485,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1544,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1558,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1570,7 +1576,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1580,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1592,7 +1598,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1602,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1614,7 +1620,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1721,7 +1727,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45715</v>
+        <v>45722</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563C8D-34BB-4517-90BB-1AFCAD303DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E861596-E949-4144-97D0-B8987F5AD1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>TUBCON</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>ENTREGA TOTAL EM 06/03/2025</t>
+  </si>
+  <si>
+    <t>ENTREGUE EM 05/03/2025</t>
   </si>
 </sst>
 </file>
@@ -684,8 +687,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
@@ -1109,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,12 +1125,13 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1143,10 +1147,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1175,11 @@
       <c r="H4" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1198,8 +1205,9 @@
         <f>55772.9-H6</f>
         <v>52972.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1224,8 +1232,9 @@
       <c r="H6" s="2">
         <v>2800</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1244,8 +1253,11 @@
       <c r="H7" s="2">
         <v>6313.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1264,8 +1276,9 @@
       <c r="H8" s="2">
         <v>4585.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1284,8 +1297,9 @@
       <c r="H9" s="2">
         <v>7027</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1304,8 +1318,9 @@
       <c r="H10" s="2">
         <v>4389.8999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1324,8 +1339,9 @@
       <c r="H11" s="2">
         <v>111871.76</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1344,8 +1360,9 @@
       <c r="H12" s="2">
         <v>31669.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1364,8 +1381,9 @@
       <c r="H13" s="2">
         <v>10823.07</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1384,8 +1402,9 @@
       <c r="H14" s="2">
         <v>2828.98</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1404,8 +1423,9 @@
       <c r="H15" s="2">
         <v>9555.5400000000009</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1426,8 +1446,9 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1448,17 +1469,18 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
         <v>45722</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" s="14"/>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E861596-E949-4144-97D0-B8987F5AD1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332820BB-EA96-4763-941F-E8D9E1EEEB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>TUBCON</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>ENTREGUE EM 05/03/2025</t>
+  </si>
+  <si>
+    <t>SITUACAO 2</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1179,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332820BB-EA96-4763-941F-E8D9E1EEEB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5993BEC-A238-4B57-9E6E-D5DBBFDDC781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>TUBCON</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>SITUACAO 2</t>
+  </si>
+  <si>
+    <t>ENTREGUE EM 11/03/2025</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>63</v>
@@ -800,7 +803,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -825,7 +828,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>64</v>
@@ -852,7 +855,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -877,7 +880,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -902,7 +905,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -927,7 +930,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -952,7 +955,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
@@ -979,7 +982,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1004,7 +1007,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
@@ -1031,7 +1034,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>29</v>
@@ -1095,7 +1098,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1121,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1324,9 @@
       <c r="H10" s="2">
         <v>4389.8999999999996</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1480,7 +1485,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,7 +1757,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45727</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5993BEC-A238-4B57-9E6E-D5DBBFDDC781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918E87F-3975-4AE9-8257-23499508E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>TUBCON</t>
   </si>
@@ -111,9 +111,6 @@
     <t>01 ENTREGA / OUTRA INFORMAR</t>
   </si>
   <si>
-    <t>PREVISTO PARA 25/02</t>
-  </si>
-  <si>
     <t>PREVISTO PARA 31/03</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>ENTREGUE EM 11/03/2025</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL EM 12/03/2025</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,17 +769,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,14 +796,14 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -828,10 +828,10 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -848,14 +848,14 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -898,14 +898,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -923,14 +923,14 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -955,10 +955,10 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1007,10 +1007,10 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1052,18 +1052,16 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>98</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1086,10 +1084,10 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,7 +1096,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1120,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1150,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,22 +1165,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1190,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>482999.14</v>
@@ -1202,7 +1200,7 @@
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="16">
         <v>45709</v>
@@ -1218,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>599767.04000000004</v>
@@ -1230,7 +1228,7 @@
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="16">
         <v>45709</v>
@@ -1245,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>23089.99</v>
@@ -1260,7 +1258,7 @@
         <v>6313.03</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>31899.91</v>
@@ -1289,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
         <v>30400</v>
@@ -1310,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
         <v>9349</v>
@@ -1325,7 +1323,7 @@
         <v>4389.8999999999996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>224271.84</v>
@@ -1354,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <v>63488.22</v>
@@ -1375,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>22894.959999999999</v>
@@ -1396,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <v>5671.32</v>
@@ -1417,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5">
         <v>42999.93</v>
@@ -1438,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <v>1529999.27</v>
@@ -1450,7 +1448,7 @@
         <v>510963.86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1461,7 +1459,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>102499.92</v>
@@ -1473,7 +1471,7 @@
         <v>16494.240000000002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1485,7 +1483,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1521,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1546,19 +1544,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1580,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1594,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1606,7 +1604,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1616,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1628,7 +1626,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1638,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1650,7 +1648,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1757,7 +1755,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
   </sheetData>
@@ -1786,10 +1784,10 @@
         <v>13008</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="8">
         <v>1166</v>
@@ -1804,7 +1802,7 @@
         <v>67161.600000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="14">
         <f>H4+H5+H6</f>
@@ -1819,10 +1817,10 @@
         <v>13009</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="11">
         <v>88</v>
@@ -1837,7 +1835,7 @@
         <v>10459.68</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="14">
         <f>H7+H8+H9</f>
@@ -1852,10 +1850,10 @@
         <v>13010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8">
         <v>69</v>
@@ -1870,7 +1868,7 @@
         <v>13399.8</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="14">
         <f>H10+H11+H12</f>
@@ -1885,10 +1883,10 @@
         <v>13011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="11">
         <v>34</v>
@@ -1911,10 +1909,10 @@
         <v>13012</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="8">
         <v>65</v>
@@ -1937,10 +1935,10 @@
         <v>13013</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="11">
         <v>66</v>
@@ -1963,10 +1961,10 @@
         <v>13071</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8">
         <v>2888</v>
@@ -1989,10 +1987,10 @@
         <v>13072</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="11">
         <v>608</v>
@@ -2015,10 +2013,10 @@
         <v>13073</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="8">
         <v>207</v>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918E87F-3975-4AE9-8257-23499508E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7817FC-5A6C-41C9-A55A-13F2D6BDB812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -216,15 +216,6 @@
     <t>ENTREGA TOTAL (JUNCAO) 17/02</t>
   </si>
   <si>
-    <t>RESTANTE (59.598,26) ATÉ 28/02</t>
-  </si>
-  <si>
-    <t>ATÉ 28/02</t>
-  </si>
-  <si>
-    <t>ENTREGA PARCIAL (77.301,69) 17/02</t>
-  </si>
-  <si>
     <t>ENTREGA PARCIAL (140.196,70) 17/02</t>
   </si>
   <si>
@@ -259,6 +250,15 @@
   </si>
   <si>
     <t>ENTREGA TOTAL EM 12/03/2025</t>
+  </si>
+  <si>
+    <t>RESTANTE (59.598,26) entregue 13/03</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL EM 13/03</t>
+  </si>
+  <si>
+    <t>RESTANTE(51.303,30) entregue 13/03</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -769,17 +769,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -821,18 +821,16 @@
         <v>45629</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>99</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -848,16 +846,18 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>99</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -880,7 +880,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -923,14 +923,14 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>27</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>27</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1052,14 +1052,14 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>28</v>
@@ -1096,21 +1096,18 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="14">
-        <f>C11-276201.1</f>
-        <v>8697.9000000000233</v>
-      </c>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1180,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1255,7 @@
         <v>6313.03</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1323,7 +1320,7 @@
         <v>4389.8999999999996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,7 +1480,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1564,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1578,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1592,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1604,7 +1601,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1614,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1626,7 +1623,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1636,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1648,7 +1645,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1755,7 +1752,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45728</v>
+        <v>45730</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7817FC-5A6C-41C9-A55A-13F2D6BDB812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9E46D-F92F-42D0-979F-9FA546F50F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>TUBCON</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>ENTREGA TOTAL (JUNCAO) 17/02</t>
-  </si>
-  <si>
-    <t>ENTREGA PARCIAL (140.196,70) 17/02</t>
   </si>
   <si>
     <t>012/2024</t>
@@ -281,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -374,6 +377,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +707,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +792,7 @@
         <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,7 +834,7 @@
         <v>45629</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
@@ -846,7 +859,7 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
@@ -856,7 +869,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,7 +936,7 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -935,29 +948,29 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="17">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="19">
         <v>435000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="20">
         <v>45629</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="18">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
         <v>101</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -987,29 +1000,29 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="17">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="19">
         <v>37500</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="20">
         <v>45629</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="18">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
         <v>101</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1052,7 +1065,7 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
@@ -1064,29 +1077,29 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="17">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="19">
         <v>750000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="20">
         <v>45629</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
         <v>101</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1177,7 +1190,7 @@
         <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,7 +1268,7 @@
         <v>6313.03</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1320,7 +1333,7 @@
         <v>4389.8999999999996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1516,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1575,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1589,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1601,7 +1614,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1611,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1623,7 +1636,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1633,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1645,7 +1658,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9E46D-F92F-42D0-979F-9FA546F50F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF00445-FCF4-4779-A82C-49B92C232C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>TUBCON</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>RESTANTE(51.303,30) entregue 13/03</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL EM 19/03/2025</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -385,6 +394,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,7 +726,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +808,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>73</v>
@@ -816,7 +835,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -841,7 +860,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -866,7 +885,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>75</v>
@@ -893,7 +912,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -918,7 +937,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -943,7 +962,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -968,7 +987,7 @@
       </c>
       <c r="G12" s="18">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>27</v>
@@ -995,36 +1014,34 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="23">
         <v>37500</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="24">
         <v>45629</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>101</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>27</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1047,7 +1064,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1072,7 +1089,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1097,7 +1114,7 @@
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>28</v>
@@ -1109,7 +1126,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45730</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,7 +1510,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45730</v>
+        <v>45736</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1765,7 +1782,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45730</v>
+        <v>45736</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF00445-FCF4-4779-A82C-49B92C232C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76079A-9034-43A9-992F-80DB3DD2021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>TUBCON</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>ENTREGA TOTAL EM 19/03/2025</t>
+  </si>
+  <si>
+    <t>CHEGOU 73.481,20 (20/03/2025</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -808,7 +811,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>73</v>
@@ -835,7 +838,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -860,7 +863,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -885,7 +888,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>75</v>
@@ -912,7 +915,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -937,7 +940,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -962,7 +965,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -987,7 +990,7 @@
       </c>
       <c r="G12" s="18">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>27</v>
@@ -1014,7 +1017,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1039,7 +1042,7 @@
       </c>
       <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14" s="22"/>
     </row>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1114,7 +1117,7 @@
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>28</v>
@@ -1126,7 +1129,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B335B5-ECC4-43A8-9A72-A05642EC4320}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1678,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1782,7 +1785,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45736</v>
+        <v>45737</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76079A-9034-43A9-992F-80DB3DD2021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6985D7F-1B0B-4241-9F2B-EEFE3E8E3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>TUBCON</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>CHEGOU 73.481,20 (20/03/2025</t>
+  </si>
+  <si>
+    <t>ENTREGUE 25/03/2025</t>
+  </si>
+  <si>
+    <t>EMTREGUE EM 25/03/2025</t>
   </si>
 </sst>
 </file>
@@ -811,7 +817,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>73</v>
@@ -838,7 +844,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -863,7 +869,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -888,7 +894,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>75</v>
@@ -915,7 +921,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -940,7 +946,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -965,7 +971,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -990,7 +996,7 @@
       </c>
       <c r="G12" s="18">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>27</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1042,7 +1048,7 @@
       </c>
       <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H14" s="22"/>
     </row>
@@ -1067,7 +1073,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1092,7 +1098,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1117,7 +1123,7 @@
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>28</v>
@@ -1129,7 +1135,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45737</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1245,9 @@
         <f>55772.9-H6</f>
         <v>52972.9</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1459,7 +1467,9 @@
       <c r="H15" s="2">
         <v>9555.5400000000009</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1513,7 +1523,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45737</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B335B5-ECC4-43A8-9A72-A05642EC4320}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1785,7 +1795,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45737</v>
+        <v>45742</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6985D7F-1B0B-4241-9F2B-EEFE3E8E3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9FAD8-CB41-4E1A-82D8-529632939AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>TUBCON</t>
   </si>
@@ -90,9 +90,6 @@
     <t>TECNOBOMBAS</t>
   </si>
   <si>
-    <t>AGUARDANDO ENTREGA</t>
-  </si>
-  <si>
     <t>ENTREGA TOTAL EM 06/02/2025</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>01 ENTREGA / OUTRA INFORMAR</t>
   </si>
   <si>
-    <t>PREVISTO PARA 31/03</t>
-  </si>
-  <si>
     <t>02 BOMBAS APÓS DESARENADOR</t>
   </si>
   <si>
@@ -268,6 +262,9 @@
   </si>
   <si>
     <t>EMTREGUE EM 25/03/2025</t>
+  </si>
+  <si>
+    <t>ENTREGA TOTAL EM 04/04/2025</t>
   </si>
 </sst>
 </file>
@@ -734,8 +731,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +787,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,17 +807,17 @@
         <v>45629</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,14 +834,14 @@
         <v>45629</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -862,14 +859,14 @@
         <v>45629</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -887,17 +884,17 @@
         <v>45629</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,14 +911,14 @@
         <v>45629</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -939,14 +936,14 @@
         <v>45629</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -964,43 +961,41 @@
         <v>45629</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="23">
         <v>435000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="24">
         <v>45629</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="22">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>113</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>27</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1016,14 +1011,14 @@
         <v>45629</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1041,14 +1036,14 @@
         <v>45629</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H14" s="22"/>
     </row>
@@ -1066,14 +1061,14 @@
         <v>45629</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1091,14 +1086,14 @@
         <v>45629</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1116,17 +1111,17 @@
         <v>45629</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,7 +1130,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45742</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1176,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1184,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1201,22 +1196,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1224,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5">
         <v>482999.14</v>
@@ -1236,7 +1231,7 @@
         <v>91021.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="16">
         <v>45709</v>
@@ -1246,7 +1241,7 @@
         <v>52972.9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1254,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>599767.04000000004</v>
@@ -1266,7 +1261,7 @@
         <v>160475.53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="16">
         <v>45709</v>
@@ -1281,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>23089.99</v>
@@ -1296,7 +1291,7 @@
         <v>6313.03</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5">
         <v>31899.91</v>
@@ -1325,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5">
         <v>30400</v>
@@ -1346,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
         <v>9349</v>
@@ -1361,7 +1356,7 @@
         <v>4389.8999999999996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
         <v>224271.84</v>
@@ -1390,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5">
         <v>63488.22</v>
@@ -1411,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>22894.959999999999</v>
@@ -1432,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>5671.32</v>
@@ -1453,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>42999.93</v>
@@ -1468,7 +1463,7 @@
         <v>9555.5400000000009</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5">
         <v>1529999.27</v>
@@ -1488,7 +1483,7 @@
         <v>510963.86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1499,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>102499.92</v>
@@ -1511,7 +1506,7 @@
         <v>16494.240000000002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1523,7 +1518,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45742</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1559,7 +1554,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,19 +1579,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1604,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -1618,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1632,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5">
         <v>300200</v>
@@ -1644,7 +1639,7 @@
         <v>300200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1654,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5">
         <v>384001.68</v>
@@ -1666,7 +1661,7 @@
         <v>384001.68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1676,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5">
         <v>935000</v>
@@ -1688,7 +1683,7 @@
         <v>935000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1795,7 +1790,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45742</v>
+        <v>45754</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1819,10 @@
         <v>13008</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
         <v>1166</v>
@@ -1842,7 +1837,7 @@
         <v>67161.600000000006</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L4" s="14">
         <f>H4+H5+H6</f>
@@ -1857,10 +1852,10 @@
         <v>13009</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11">
         <v>88</v>
@@ -1875,7 +1870,7 @@
         <v>10459.68</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5" s="14">
         <f>H7+H8+H9</f>
@@ -1890,10 +1885,10 @@
         <v>13010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="8">
         <v>69</v>
@@ -1908,7 +1903,7 @@
         <v>13399.8</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="14">
         <f>H10+H11+H12</f>
@@ -1923,10 +1918,10 @@
         <v>13011</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="11">
         <v>34</v>
@@ -1949,10 +1944,10 @@
         <v>13012</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8">
         <v>65</v>
@@ -1975,10 +1970,10 @@
         <v>13013</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="11">
         <v>66</v>
@@ -2001,10 +1996,10 @@
         <v>13071</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8">
         <v>2888</v>
@@ -2027,10 +2022,10 @@
         <v>13072</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="11">
         <v>608</v>
@@ -2053,10 +2048,10 @@
         <v>13073</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="8">
         <v>207</v>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E9FAD8-CB41-4E1A-82D8-529632939AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77F9CA0-EDD0-4E4D-A772-13FB141E2F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -814,7 +814,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>71</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G12" s="22">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H12" s="22"/>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H14" s="22"/>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>26</v>
@@ -1130,7 +1130,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41915EAA-5340-4BDB-A02A-6093044D52E1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1518,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45761</v>
       </c>
     </row>
   </sheetData>

--- a/PREGAO 13.xlsx
+++ b/PREGAO 13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77F9CA0-EDD0-4E4D-A772-13FB141E2F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29889DF2-A613-4EE1-92D9-1077334387C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74ECB4C9-2000-488A-B42E-CD55797034C5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>TUBCON</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>ENTREGA TOTAL EM 04/04/2025</t>
+  </si>
+  <si>
+    <t>ENTREGUE EM 24/03/2025</t>
+  </si>
+  <si>
+    <t>ENTREGUE EM 06/03/2025</t>
   </si>
 </sst>
 </file>
@@ -814,7 +820,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">_xlfn.DAYS(E20,D5)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>71</v>
@@ -841,7 +847,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">_xlfn.DAYS(E20,D6)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -866,7 +872,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">_xlfn.DAYS(E20,D7)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -891,7 +897,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">_xlfn.DAYS(E20,D8)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -918,7 +924,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">_xlfn.DAYS(E20,D9)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -943,7 +949,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">_xlfn.DAYS(E20,D10)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -968,7 +974,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">_xlfn.DAYS(E20,D11)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -993,7 +999,7 @@
       </c>
       <c r="G12" s="22">
         <f ca="1">_xlfn.DAYS(E20,D12)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H12" s="22"/>
     </row>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">_xlfn.DAYS(E20,D13)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="G14" s="22">
         <f ca="1">_xlfn.DAYS(E20,D14)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14" s="22"/>
     </row>
@@ -1068,7 +1074,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">_xlfn.DAYS(E20,D15)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1093,7 +1099,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">_xlfn.DAYS(E20,D16)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1118,7 +1124,7 @@
       </c>
       <c r="G17" s="18">
         <f ca="1">_xlfn.DAYS(E20,D17)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>26</v>
@@ -1130,7 +1136,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1156,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1426,9 @@
       <c r="H13" s="2">
         <v>10823.07</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1441,7 +1449,9 @@
       <c r="H14" s="2">
         <v>2828.98</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1518,7 +1528,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,7 +1800,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45763</v>
       </c>
     </row>
   </sheetData>
